--- a/data/Table1.xlsx
+++ b/data/Table1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakashahamed/Desktop/SpatioTemporal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90FA6573-B28D-C94D-9269-4008D8E53C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AEDDD3-591F-EB48-A6D2-3FD7D74C9A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080"/>
+    <workbookView xWindow="13540" yWindow="500" windowWidth="22660" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>SAN JOAQUIN R</t>
   </si>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -622,7 +622,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -979,11 +979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="1" sqref="G13 G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,108 +996,108 @@
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
-        <v>5122.5533999999998</v>
+        <v>24146.043299999899</v>
       </c>
       <c r="D2" s="2">
-        <v>89.611200000000011</v>
+        <v>325.22160000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>542.44455186026005</v>
+        <v>230.41848769305099</v>
       </c>
       <c r="F2" s="1">
-        <v>70.142832328067797</v>
+        <v>72.101108307843703</v>
       </c>
       <c r="G2" s="1">
-        <v>206.22557380287</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30.0543979776387</v>
+        <v>152.01877402108599</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>4722.4052999999903</v>
+        <v>11475.148499999999</v>
       </c>
       <c r="D3" s="2">
-        <v>51.816000000000003</v>
+        <v>274.32</v>
       </c>
       <c r="E3" s="1">
-        <v>537.43495216232702</v>
+        <v>340.63843543291898</v>
       </c>
       <c r="F3" s="1">
-        <v>91.369414864550293</v>
+        <v>74.044699903376497</v>
       </c>
       <c r="G3" s="1">
-        <v>215.431408885254</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6.8272568403760001</v>
+        <v>221.460363802568</v>
+      </c>
+      <c r="H3" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>6226.9722000000002</v>
+        <v>3499.5807</v>
       </c>
       <c r="D4" s="2">
-        <v>803.14800000000002</v>
+        <v>85.344000000000008</v>
       </c>
       <c r="E4" s="1">
-        <v>294.77249974942703</v>
+        <v>475.14175681044298</v>
       </c>
       <c r="F4" s="1">
-        <v>60.778152210246198</v>
+        <v>94.508006701517104</v>
       </c>
       <c r="G4" s="1">
-        <v>80.320773064689206</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10.8906714915886</v>
+        <v>341.251402576538</v>
+      </c>
+      <c r="H4" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1122,8 +1122,8 @@
       <c r="G5" s="1">
         <v>252.820744589317</v>
       </c>
-      <c r="H5" s="1">
-        <v>6.7654836069529702</v>
+      <c r="H5" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1148,684 +1148,268 @@
       <c r="G6" s="1">
         <v>117.55020391252</v>
       </c>
-      <c r="H6" s="1">
-        <v>132.10139249535999</v>
+      <c r="H6" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>2801.79</v>
+        <v>1688.1371999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>345.94800000000004</v>
+        <v>175.26000000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>560.17148654745802</v>
+        <v>508.60536270782001</v>
       </c>
       <c r="F7" s="1">
-        <v>91.134414362550302</v>
+        <v>80.156723795703201</v>
       </c>
       <c r="G7" s="1">
-        <v>192.05686287434199</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.3582335710864699</v>
+        <v>239.48635172233301</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>11475.148499999999</v>
+        <v>2801.79</v>
       </c>
       <c r="D8" s="2">
-        <v>274.32</v>
+        <v>345.94800000000004</v>
       </c>
       <c r="E8" s="1">
-        <v>340.63843543291898</v>
+        <v>560.17148654745802</v>
       </c>
       <c r="F8" s="1">
-        <v>74.044699903376497</v>
+        <v>91.134414362550302</v>
       </c>
       <c r="G8" s="1">
-        <v>221.460363802568</v>
-      </c>
-      <c r="H8" s="1">
-        <v>14.167482005254101</v>
+        <v>192.05686287434199</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
-        <v>1701.7128</v>
+        <v>1125.6569999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>229.20960000000002</v>
+        <v>168.85920000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>363.95939578949202</v>
+        <v>24.151310659161702</v>
       </c>
       <c r="F9" s="1">
-        <v>63.842250534049803</v>
+        <v>66.854565828037394</v>
       </c>
       <c r="G9" s="1">
-        <v>159.401784306313</v>
-      </c>
-      <c r="H9" s="1">
-        <v>66.561954438787694</v>
+        <v>39.853520017002403</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>1688.1371999999999</v>
+        <v>4722.4052999999903</v>
       </c>
       <c r="D10" s="2">
-        <v>175.26000000000002</v>
+        <v>51.816000000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>508.60536270782001</v>
+        <v>537.43495216232702</v>
       </c>
       <c r="F10" s="1">
-        <v>80.156723795703201</v>
+        <v>91.369414864550293</v>
       </c>
       <c r="G10" s="1">
-        <v>239.48635172233301</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.6557203387055202</v>
+        <v>215.431408885254</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>1182.0491999999999</v>
+        <v>3215.7485999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>210.92160000000001</v>
+        <v>267.91919999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>132.86315858149001</v>
+        <v>462.43554803650602</v>
       </c>
       <c r="F11" s="1">
-        <v>58.318630810845001</v>
+        <v>76.744454827610497</v>
       </c>
       <c r="G11" s="1">
-        <v>65.638448195653993</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.69690929037511</v>
+        <v>173.500749650188</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>4702.9571999999998</v>
+        <v>5122.5533999999998</v>
       </c>
       <c r="D12" s="2">
-        <v>295.65600000000001</v>
+        <v>89.611200000000011</v>
       </c>
       <c r="E12" s="1">
-        <v>588.99974087769294</v>
+        <v>542.44455186026005</v>
       </c>
       <c r="F12" s="1">
-        <v>67.151824342719394</v>
+        <v>70.142832328067797</v>
       </c>
       <c r="G12" s="1">
-        <v>218.84344488300101</v>
-      </c>
-      <c r="H12" s="1">
-        <v>15.4507522955259</v>
+        <v>206.22557380287</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>3215.7485999999999</v>
+        <v>4702.9571999999998</v>
       </c>
       <c r="D13" s="2">
-        <v>267.91919999999999</v>
+        <v>295.65600000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>462.43554803650602</v>
+        <v>588.99974087769294</v>
       </c>
       <c r="F13" s="1">
-        <v>76.744454827610497</v>
+        <v>67.151824342719394</v>
       </c>
       <c r="G13" s="1">
-        <v>173.500749650188</v>
-      </c>
-      <c r="H13" s="1">
-        <v>39.354028011413597</v>
+        <v>218.84344488300101</v>
+      </c>
+      <c r="H13" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>1125.6569999999999</v>
+        <v>1701.7128</v>
       </c>
       <c r="D14" s="2">
-        <v>168.85920000000002</v>
+        <v>229.20960000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>24.151310659161702</v>
+        <v>363.95939578949202</v>
       </c>
       <c r="F14" s="1">
-        <v>66.854565828037394</v>
+        <v>63.842250534049803</v>
       </c>
       <c r="G14" s="1">
-        <v>39.853520017002403</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3.6436183555231598</v>
+        <v>159.401784306313</v>
+      </c>
+      <c r="H14" s="2">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>3499.5807</v>
+        <v>1182.0491999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>85.344000000000008</v>
+        <v>210.92160000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>475.14175681044298</v>
+        <v>132.86315858149001</v>
       </c>
       <c r="F15" s="1">
-        <v>94.508006701517104</v>
+        <v>58.318630810845001</v>
       </c>
       <c r="G15" s="1">
-        <v>341.251402576538</v>
-      </c>
-      <c r="H15" s="1">
-        <v>86.802454069473299</v>
+        <v>65.638448195653993</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>24146.043299999899</v>
+        <v>6226.9722000000002</v>
       </c>
       <c r="D16" s="2">
-        <v>325.22160000000002</v>
+        <v>803.14800000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>230.41848769305099</v>
+        <v>294.77249974942703</v>
       </c>
       <c r="F16" s="1">
-        <v>72.101108307843703</v>
+        <v>60.778152210246198</v>
       </c>
       <c r="G16" s="1">
-        <v>152.01877402108599</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.3873293045336199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2">
-        <v>24146.043299999899</v>
-      </c>
-      <c r="D20" s="2">
-        <v>325.22160000000002</v>
-      </c>
-      <c r="E20" s="1">
-        <v>230.41848769305099</v>
-      </c>
-      <c r="F20" s="1">
-        <v>72.101108307843703</v>
-      </c>
-      <c r="G20" s="1">
-        <v>152.01877402108599</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.3873293045336199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
+        <v>80.320773064689206</v>
+      </c>
+      <c r="H16" s="2">
         <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>11475.148499999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>274.32</v>
-      </c>
-      <c r="E21" s="1">
-        <v>340.63843543291898</v>
-      </c>
-      <c r="F21" s="1">
-        <v>74.044699903376497</v>
-      </c>
-      <c r="G21" s="1">
-        <v>221.460363802568</v>
-      </c>
-      <c r="H21" s="1">
-        <v>14.167482005254101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3499.5807</v>
-      </c>
-      <c r="D22" s="2">
-        <v>85.344000000000008</v>
-      </c>
-      <c r="E22" s="1">
-        <v>475.14175681044298</v>
-      </c>
-      <c r="F22" s="1">
-        <v>94.508006701517104</v>
-      </c>
-      <c r="G22" s="1">
-        <v>341.251402576538</v>
-      </c>
-      <c r="H22" s="1">
-        <v>86.802454069473299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>5838.2694000000001</v>
-      </c>
-      <c r="D23" s="2">
-        <v>40.233600000000003</v>
-      </c>
-      <c r="E23" s="1">
-        <v>394.48841707762102</v>
-      </c>
-      <c r="F23" s="1">
-        <v>89.736512899880594</v>
-      </c>
-      <c r="G23" s="1">
-        <v>252.820744589317</v>
-      </c>
-      <c r="H23" s="1">
-        <v>6.7654836069529702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1672.76339999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>51.206400000000002</v>
-      </c>
-      <c r="E24" s="1">
-        <v>170.043693253203</v>
-      </c>
-      <c r="F24" s="1">
-        <v>73.546215976228595</v>
-      </c>
-      <c r="G24" s="1">
-        <v>117.55020391252</v>
-      </c>
-      <c r="H24" s="1">
-        <v>132.10139249535999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1688.1371999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>175.26000000000002</v>
-      </c>
-      <c r="E25" s="1">
-        <v>508.60536270782001</v>
-      </c>
-      <c r="F25" s="1">
-        <v>80.156723795703201</v>
-      </c>
-      <c r="G25" s="1">
-        <v>239.48635172233301</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2.6557203387055202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2801.79</v>
-      </c>
-      <c r="D26" s="2">
-        <v>345.94800000000004</v>
-      </c>
-      <c r="E26" s="1">
-        <v>560.17148654745802</v>
-      </c>
-      <c r="F26" s="1">
-        <v>91.134414362550302</v>
-      </c>
-      <c r="G26" s="1">
-        <v>192.05686287434199</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5.3582335710864699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1125.6569999999999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>168.85920000000002</v>
-      </c>
-      <c r="E27" s="1">
-        <v>24.151310659161702</v>
-      </c>
-      <c r="F27" s="1">
-        <v>66.854565828037394</v>
-      </c>
-      <c r="G27" s="1">
-        <v>39.853520017002403</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3.6436183555231598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4722.4052999999903</v>
-      </c>
-      <c r="D28" s="2">
-        <v>51.816000000000003</v>
-      </c>
-      <c r="E28" s="1">
-        <v>537.43495216232702</v>
-      </c>
-      <c r="F28" s="1">
-        <v>91.369414864550293</v>
-      </c>
-      <c r="G28" s="1">
-        <v>215.431408885254</v>
-      </c>
-      <c r="H28" s="1">
-        <v>6.8272568403760001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3215.7485999999999</v>
-      </c>
-      <c r="D29" s="2">
-        <v>267.91919999999999</v>
-      </c>
-      <c r="E29" s="1">
-        <v>462.43554803650602</v>
-      </c>
-      <c r="F29" s="1">
-        <v>76.744454827610497</v>
-      </c>
-      <c r="G29" s="1">
-        <v>173.500749650188</v>
-      </c>
-      <c r="H29" s="1">
-        <v>39.354028011413597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5122.5533999999998</v>
-      </c>
-      <c r="D30" s="2">
-        <v>89.611200000000011</v>
-      </c>
-      <c r="E30" s="1">
-        <v>542.44455186026005</v>
-      </c>
-      <c r="F30" s="1">
-        <v>70.142832328067797</v>
-      </c>
-      <c r="G30" s="1">
-        <v>206.22557380287</v>
-      </c>
-      <c r="H30" s="1">
-        <v>30.0543979776387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4702.9571999999998</v>
-      </c>
-      <c r="D31" s="2">
-        <v>295.65600000000001</v>
-      </c>
-      <c r="E31" s="1">
-        <v>588.99974087769294</v>
-      </c>
-      <c r="F31" s="1">
-        <v>67.151824342719394</v>
-      </c>
-      <c r="G31" s="1">
-        <v>218.84344488300101</v>
-      </c>
-      <c r="H31" s="1">
-        <v>15.4507522955259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1701.7128</v>
-      </c>
-      <c r="D32" s="2">
-        <v>229.20960000000002</v>
-      </c>
-      <c r="E32" s="1">
-        <v>363.95939578949202</v>
-      </c>
-      <c r="F32" s="1">
-        <v>63.842250534049803</v>
-      </c>
-      <c r="G32" s="1">
-        <v>159.401784306313</v>
-      </c>
-      <c r="H32" s="1">
-        <v>66.561954438787694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1182.0491999999999</v>
-      </c>
-      <c r="D33" s="2">
-        <v>210.92160000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>132.86315858149001</v>
-      </c>
-      <c r="F33" s="1">
-        <v>58.318630810845001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>65.638448195653993</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2.69690929037511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6226.9722000000002</v>
-      </c>
-      <c r="D34" s="2">
-        <v>803.14800000000002</v>
-      </c>
-      <c r="E34" s="1">
-        <v>294.77249974942703</v>
-      </c>
-      <c r="F34" s="1">
-        <v>60.778152210246198</v>
-      </c>
-      <c r="G34" s="1">
-        <v>80.320773064689206</v>
-      </c>
-      <c r="H34" s="1">
-        <v>10.8906714915886</v>
       </c>
     </row>
   </sheetData>
